--- a/src/main/resources/Form_Data.xlsx
+++ b/src/main/resources/Form_Data.xlsx
@@ -1,65 +1,65 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="20580" windowHeight="11070" firstSheet="13" activeTab="21"/>
+    <workbookView activeTab="3" firstSheet="1" windowHeight="11070" windowWidth="20580" xWindow="0" yWindow="2445"/>
   </bookViews>
   <sheets>
-    <sheet name="TC43766" sheetId="27" r:id="rId1"/>
-    <sheet name="TC43767" sheetId="28" r:id="rId2"/>
-    <sheet name="TC43768" sheetId="24" r:id="rId3"/>
-    <sheet name="TC43769" sheetId="26" r:id="rId4"/>
-    <sheet name="TC43770" sheetId="29" r:id="rId5"/>
-    <sheet name="TC43771" sheetId="30" r:id="rId6"/>
-    <sheet name="TC43773" sheetId="31" r:id="rId7"/>
-    <sheet name="TC43774" sheetId="38" r:id="rId8"/>
-    <sheet name="TC43775" sheetId="32" r:id="rId9"/>
-    <sheet name="TC43776" sheetId="34" r:id="rId10"/>
-    <sheet name="TC43777" sheetId="33" r:id="rId11"/>
-    <sheet name="TC43778" sheetId="25" r:id="rId12"/>
-    <sheet name="TC43780" sheetId="36" r:id="rId13"/>
-    <sheet name="TC43781" sheetId="37" r:id="rId14"/>
-    <sheet name="TC43782" sheetId="41" r:id="rId15"/>
-    <sheet name="TC43783" sheetId="40" r:id="rId16"/>
-    <sheet name="TC43784" sheetId="35" r:id="rId17"/>
-    <sheet name="TC44216" sheetId="39" r:id="rId18"/>
-    <sheet name="TC44217" sheetId="42" r:id="rId19"/>
-    <sheet name="TC44218" sheetId="44" r:id="rId20"/>
-    <sheet name="TC44219" sheetId="43" r:id="rId21"/>
-    <sheet name="TC44643" sheetId="52" r:id="rId22"/>
-    <sheet name="TC42400" sheetId="12" r:id="rId23"/>
-    <sheet name="TC42243" sheetId="16" r:id="rId24"/>
-    <sheet name="TC42405" sheetId="15" r:id="rId25"/>
-    <sheet name="TC42665" sheetId="53" r:id="rId26"/>
-    <sheet name="TC42399" sheetId="20" r:id="rId27"/>
-    <sheet name="TC42404" sheetId="1" r:id="rId28"/>
-    <sheet name="TC42239" sheetId="3" r:id="rId29"/>
-    <sheet name="TC42242" sheetId="4" r:id="rId30"/>
-    <sheet name="TC42238" sheetId="5" r:id="rId31"/>
-    <sheet name="TC42245" sheetId="6" r:id="rId32"/>
-    <sheet name="TC42530" sheetId="8" r:id="rId33"/>
-    <sheet name="TC42536" sheetId="9" r:id="rId34"/>
-    <sheet name="TC42403" sheetId="23" r:id="rId35"/>
-    <sheet name="TC42240" sheetId="17" r:id="rId36"/>
-    <sheet name="TC42253" sheetId="21" r:id="rId37"/>
-    <sheet name="TC42249" sheetId="22" r:id="rId38"/>
-    <sheet name="TC42247" sheetId="18" r:id="rId39"/>
-    <sheet name="TC42250" sheetId="19" r:id="rId40"/>
-    <sheet name="TC42248" sheetId="45" r:id="rId41"/>
-    <sheet name="TC42666" sheetId="46" r:id="rId42"/>
-    <sheet name="TC42252" sheetId="47" r:id="rId43"/>
-    <sheet name="TC42246" sheetId="48" r:id="rId44"/>
-    <sheet name="TC42251" sheetId="49" r:id="rId45"/>
-    <sheet name="TC42244" sheetId="51" r:id="rId46"/>
+    <sheet name="TC43766" r:id="rId1" sheetId="27"/>
+    <sheet name="TC43767" r:id="rId2" sheetId="28"/>
+    <sheet name="TC43768" r:id="rId3" sheetId="24"/>
+    <sheet name="TC43769" r:id="rId4" sheetId="26"/>
+    <sheet name="TC43770" r:id="rId5" sheetId="29"/>
+    <sheet name="TC43771" r:id="rId6" sheetId="30"/>
+    <sheet name="TC43773" r:id="rId7" sheetId="31"/>
+    <sheet name="TC43774" r:id="rId8" sheetId="38"/>
+    <sheet name="TC43775" r:id="rId9" sheetId="32"/>
+    <sheet name="TC43776" r:id="rId10" sheetId="34"/>
+    <sheet name="TC43777" r:id="rId11" sheetId="33"/>
+    <sheet name="TC43778" r:id="rId12" sheetId="25"/>
+    <sheet name="TC43780" r:id="rId13" sheetId="36"/>
+    <sheet name="TC43781" r:id="rId14" sheetId="37"/>
+    <sheet name="TC43782" r:id="rId15" sheetId="41"/>
+    <sheet name="TC43783" r:id="rId16" sheetId="40"/>
+    <sheet name="TC43784" r:id="rId17" sheetId="35"/>
+    <sheet name="TC44216" r:id="rId18" sheetId="39"/>
+    <sheet name="TC44217" r:id="rId19" sheetId="42"/>
+    <sheet name="TC44218" r:id="rId20" sheetId="44"/>
+    <sheet name="TC44219" r:id="rId21" sheetId="43"/>
+    <sheet name="TC44643" r:id="rId22" sheetId="52"/>
+    <sheet name="TC42400" r:id="rId23" sheetId="12"/>
+    <sheet name="TC42243" r:id="rId24" sheetId="16"/>
+    <sheet name="TC42405" r:id="rId25" sheetId="15"/>
+    <sheet name="TC42665" r:id="rId26" sheetId="53"/>
+    <sheet name="TC42399" r:id="rId27" sheetId="20"/>
+    <sheet name="TC42404" r:id="rId28" sheetId="1"/>
+    <sheet name="TC42239" r:id="rId29" sheetId="3"/>
+    <sheet name="TC42242" r:id="rId30" sheetId="4"/>
+    <sheet name="TC42238" r:id="rId31" sheetId="5"/>
+    <sheet name="TC42245" r:id="rId32" sheetId="6"/>
+    <sheet name="TC42530" r:id="rId33" sheetId="8"/>
+    <sheet name="TC42536" r:id="rId34" sheetId="9"/>
+    <sheet name="TC42403" r:id="rId35" sheetId="23"/>
+    <sheet name="TC42240" r:id="rId36" sheetId="17"/>
+    <sheet name="TC42253" r:id="rId37" sheetId="21"/>
+    <sheet name="TC42249" r:id="rId38" sheetId="22"/>
+    <sheet name="TC42247" r:id="rId39" sheetId="18"/>
+    <sheet name="TC42250" r:id="rId40" sheetId="19"/>
+    <sheet name="TC42248" r:id="rId41" sheetId="45"/>
+    <sheet name="TC42666" r:id="rId42" sheetId="46"/>
+    <sheet name="TC42252" r:id="rId43" sheetId="47"/>
+    <sheet name="TC42246" r:id="rId44" sheetId="48"/>
+    <sheet name="TC42251" r:id="rId45" sheetId="49"/>
+    <sheet name="TC42244" r:id="rId46" sheetId="51"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1862" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1873" uniqueCount="500">
   <si>
     <t>City</t>
   </si>
@@ -1498,9 +1498,6 @@
     <t>Automation Testing111118_051209</t>
   </si>
   <si>
-    <t>Q09119852-NB18-01</t>
-  </si>
-  <si>
     <t>Q09119852-NB18-02</t>
   </si>
   <si>
@@ -1531,13 +1528,37 @@
     <t>70542</t>
   </si>
   <si>
-    <t>Automation Testing111218_102632</t>
-  </si>
-  <si>
-    <t>Q09100702-NB18-01</t>
-  </si>
-  <si>
-    <t>Q09100702-NB18-02</t>
+    <t>Automation Testing111318_092027</t>
+  </si>
+  <si>
+    <t>Q09100709-NB18-01</t>
+  </si>
+  <si>
+    <t>Q09100709-NB18-02</t>
+  </si>
+  <si>
+    <t>Q09103366-NB18-01</t>
+  </si>
+  <si>
+    <t>Automation Testing111318_111745</t>
+  </si>
+  <si>
+    <t>Automation Testing111318_114743</t>
+  </si>
+  <si>
+    <t>Q09100710-NB18-01</t>
+  </si>
+  <si>
+    <t>Q09100710-NB18-02</t>
+  </si>
+  <si>
+    <t>Automation Testing111318_073559</t>
+  </si>
+  <si>
+    <t>Q09100711-NB18-01</t>
+  </si>
+  <si>
+    <t>Q09100711-NB18-02</t>
   </si>
 </sst>
 </file>
@@ -1822,212 +1843,212 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="97">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="14" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="8" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="14" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="3" fontId="0" numFmtId="14" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="6" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="7" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="4" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="9" fillId="2" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="8" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="14" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="11" fillId="0" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="10" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="4" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" borderId="10" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyBorder="1" borderId="10" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf applyBorder="1" applyFill="1" borderId="12" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="13" fillId="2" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="13" fillId="2" fontId="9" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" applyFont="1" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2044,10 +2065,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2082,7 +2103,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2117,7 +2138,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2205,7 +2226,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -2214,13 +2235,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -2230,7 +2251,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2239,7 +2260,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2248,7 +2269,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2258,12 +2279,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
+            <a:lightRig dir="t" rig="threePt">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
+            <a:bevelT h="25400" w="63500"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -2294,7 +2315,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -2313,7 +2334,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -2325,11 +2346,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
@@ -2337,18 +2358,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="29.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="1" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
@@ -2382,7 +2403,7 @@
       <c r="K1" s="38"/>
       <c r="L1" s="38"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:12" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="60" t="s">
         <v>159</v>
       </c>
@@ -2591,18 +2612,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
@@ -2610,30 +2631,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="1" spans="1:22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
@@ -2701,7 +2722,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>159</v>
       </c>
@@ -2742,7 +2763,7 @@
         <v>88</v>
       </c>
       <c r="N2" s="56" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="O2" s="58" t="s">
         <v>22</v>
@@ -2771,19 +2792,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" r:id="rId2" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
@@ -2791,25 +2812,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="1" spans="1:17" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
@@ -2862,7 +2883,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:17" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>159</v>
       </c>
@@ -2870,7 +2891,7 @@
         <v>160</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D2" s="44" t="s">
         <v>250</v>
@@ -2917,18 +2938,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -2936,9 +2957,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="15.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -2965,18 +2986,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -2984,20 +3005,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="62.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="62.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="1" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
@@ -3032,7 +3053,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:11" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>159</v>
       </c>
@@ -3046,7 +3067,7 @@
         <v>117</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F2" s="58" t="s">
         <v>251</v>
@@ -3069,18 +3090,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:Y2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
@@ -3088,30 +3109,30 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="38.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="38.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
@@ -3205,7 +3226,7 @@
         <v>37</v>
       </c>
       <c r="F2" s="56" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G2" s="58" t="s">
         <v>242</v>
@@ -3262,18 +3283,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
@@ -3281,22 +3302,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="1" spans="1:13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
@@ -3337,7 +3358,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>159</v>
       </c>
@@ -3345,7 +3366,7 @@
         <v>160</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D2" s="58" t="s">
         <v>224</v>
@@ -3376,7 +3397,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="16.5" r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F3" s="58" t="s">
         <v>296</v>
       </c>
@@ -3398,18 +3419,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
@@ -3417,28 +3438,28 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="29.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="37.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="37.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="1" spans="1:22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
@@ -3506,7 +3527,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:22" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>159</v>
       </c>
@@ -3514,13 +3535,13 @@
         <v>160</v>
       </c>
       <c r="C2" s="76" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D2" s="76" t="s">
         <v>151</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>365</v>
@@ -3576,18 +3597,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
@@ -3595,13 +3616,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="1" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
@@ -3615,7 +3636,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>159</v>
       </c>
@@ -3626,77 +3647,19 @@
         <v>94</v>
       </c>
       <c r="D2" s="58" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>253</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>255</v>
-      </c>
-      <c r="E1" s="38"/>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="58" t="s">
-        <v>280</v>
-      </c>
-      <c r="D2" s="58" t="s">
-        <v>256</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
@@ -3708,21 +3671,79 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="1" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="40" t="s">
         <v>6</v>
       </c>
+      <c r="C1" s="40" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>255</v>
+      </c>
+      <c r="E1" s="38"/>
+    </row>
+    <row ht="15.75" r="2" spans="1:5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="44" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="58" t="s">
+        <v>280</v>
+      </c>
+      <c r="D2" s="58" t="s">
+        <v>256</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" r:id="rId2" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row ht="15.75" r="1" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>6</v>
+      </c>
       <c r="C1" s="13" t="s">
         <v>300</v>
       </c>
@@ -3736,7 +3757,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>159</v>
       </c>
@@ -3758,18 +3779,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:P2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -3777,22 +3798,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="5.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="64" t="s">
         <v>5</v>
       </c>
@@ -3839,7 +3860,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>159</v>
       </c>
@@ -3888,18 +3909,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:AA3"/>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
@@ -3907,36 +3928,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.42578125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="19.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="43.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="33.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="32.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="31.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="40.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="9.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="43.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="95" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="15.75" r="1" s="95" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
@@ -4019,7 +4040,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>159</v>
       </c>
@@ -4027,7 +4048,7 @@
         <v>160</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>345</v>
@@ -4060,7 +4081,7 @@
         <v>1</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="O2" s="6" t="s">
         <v>22</v>
@@ -4107,18 +4128,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
@@ -4126,27 +4147,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="41.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="37.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="38.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="41.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="38.5703125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="96" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="15.75" r="1" s="96" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
@@ -4202,7 +4223,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>159</v>
       </c>
@@ -4210,7 +4231,7 @@
         <v>160</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>328</v>
@@ -4260,62 +4281,64 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" r:id="rId2" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:AF23"/>
+  <dimension ref="A1:AI23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="AG2" sqref="AG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.42578125" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.85546875" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.85546875" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.85546875" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.85546875" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="27.42578125" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="26.42578125" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="17.85546875" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="19.85546875" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="5.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="9.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="27.42578125" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="15.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="21.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="20" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="28.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="17.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="21.5703125" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="21" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="11.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="18.5703125" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="20.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="18.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="16384" width="9.140625" style="90" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="90" width="9.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="90" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="90" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="90" width="17.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="90" width="22.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="90" width="30.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="90" width="15.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="90" width="22.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="90" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="90" width="12.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="90" width="10.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="90" width="24.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="90" width="11.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="90" width="27.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="90" width="26.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="90" width="17.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="90" width="19.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="90" width="5.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="90" width="9.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="90" width="27.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="90" width="15.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="90" width="21.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="90" width="20.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="90" width="24.140625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="90" width="28.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="90" width="17.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="90" width="21.5703125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="90" width="21.0" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="90" width="11.7109375" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="90" width="18.5703125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="90" width="20.7109375" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="90" width="18.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="90" width="38.5703125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="90" width="20.140625" collapsed="true"/>
+    <col min="35" max="16384" style="90" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>247</v>
       </c>
@@ -4412,8 +4435,14 @@
       <c r="AF1" s="3" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH1" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>159</v>
       </c>
@@ -4421,7 +4450,7 @@
         <v>160</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D2" s="56" t="s">
         <v>386</v>
@@ -4510,8 +4539,14 @@
       <c r="AF2" s="56" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG2" s="59" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH2" s="59" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A3" s="58"/>
       <c r="B3" s="58"/>
       <c r="C3" s="56"/>
@@ -4560,8 +4595,10 @@
       <c r="AD3" s="58"/>
       <c r="AE3" s="58"/>
       <c r="AF3" s="58"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A4" s="58"/>
       <c r="B4" s="58"/>
       <c r="C4" s="58"/>
@@ -4608,8 +4645,10 @@
       <c r="AD4" s="58"/>
       <c r="AE4" s="58"/>
       <c r="AF4" s="58"/>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG4" s="58"/>
+      <c r="AH4" s="58"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
       <c r="B5" s="58"/>
       <c r="C5" s="58"/>
@@ -4656,8 +4695,10 @@
       <c r="AD5" s="58"/>
       <c r="AE5" s="58"/>
       <c r="AF5" s="58"/>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG5" s="58"/>
+      <c r="AH5" s="58"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
       <c r="B6" s="58"/>
       <c r="C6" s="58"/>
@@ -4704,8 +4745,10 @@
       <c r="AD6" s="58"/>
       <c r="AE6" s="58"/>
       <c r="AF6" s="58"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG6" s="58"/>
+      <c r="AH6" s="58"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7" s="58"/>
       <c r="B7" s="58"/>
       <c r="C7" s="58"/>
@@ -4752,8 +4795,10 @@
       <c r="AD7" s="58"/>
       <c r="AE7" s="58"/>
       <c r="AF7" s="58"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG7" s="58"/>
+      <c r="AH7" s="58"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8" s="58"/>
       <c r="B8" s="58"/>
       <c r="C8" s="58"/>
@@ -4800,8 +4845,10 @@
       <c r="AD8" s="58"/>
       <c r="AE8" s="58"/>
       <c r="AF8" s="58"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG8" s="58"/>
+      <c r="AH8" s="58"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9" s="58"/>
       <c r="B9" s="58"/>
       <c r="C9" s="58"/>
@@ -4848,8 +4895,10 @@
       <c r="AD9" s="58"/>
       <c r="AE9" s="58"/>
       <c r="AF9" s="58"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG9" s="58"/>
+      <c r="AH9" s="58"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10" s="58"/>
       <c r="B10" s="58"/>
       <c r="C10" s="58"/>
@@ -4896,8 +4945,10 @@
       <c r="AD10" s="58"/>
       <c r="AE10" s="58"/>
       <c r="AF10" s="58"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG10" s="58"/>
+      <c r="AH10" s="58"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
       <c r="B11" s="58"/>
       <c r="C11" s="58"/>
@@ -4944,8 +4995,10 @@
       <c r="AD11" s="58"/>
       <c r="AE11" s="58"/>
       <c r="AF11" s="58"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG11" s="58"/>
+      <c r="AH11" s="58"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12" s="58"/>
       <c r="B12" s="58"/>
       <c r="C12" s="58"/>
@@ -4992,8 +5045,10 @@
       <c r="AD12" s="58"/>
       <c r="AE12" s="58"/>
       <c r="AF12" s="58"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG12" s="58"/>
+      <c r="AH12" s="58"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13" s="58"/>
       <c r="B13" s="58"/>
       <c r="C13" s="58"/>
@@ -5040,8 +5095,10 @@
       <c r="AD13" s="58"/>
       <c r="AE13" s="58"/>
       <c r="AF13" s="58"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG13" s="58"/>
+      <c r="AH13" s="58"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14" s="58"/>
       <c r="B14" s="58"/>
       <c r="C14" s="58"/>
@@ -5088,8 +5145,10 @@
       <c r="AD14" s="58"/>
       <c r="AE14" s="58"/>
       <c r="AF14" s="58"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG14" s="58"/>
+      <c r="AH14" s="58"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15" s="58"/>
       <c r="B15" s="58"/>
       <c r="C15" s="58"/>
@@ -5136,8 +5195,10 @@
       <c r="AD15" s="58"/>
       <c r="AE15" s="58"/>
       <c r="AF15" s="58"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG15" s="58"/>
+      <c r="AH15" s="58"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16" s="58"/>
       <c r="B16" s="58"/>
       <c r="C16" s="58"/>
@@ -5184,8 +5245,10 @@
       <c r="AD16" s="58"/>
       <c r="AE16" s="58"/>
       <c r="AF16" s="58"/>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG16" s="58"/>
+      <c r="AH16" s="58"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="58"/>
       <c r="B17" s="58"/>
       <c r="C17" s="58"/>
@@ -5232,27 +5295,29 @@
       <c r="AD17" s="58"/>
       <c r="AE17" s="58"/>
       <c r="AF17" s="58"/>
-    </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="AG17" s="58"/>
+      <c r="AH17" s="58"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="E22" s="91"/>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="E23" s="91"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -5260,25 +5325,25 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="95" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="15.75" r="1" s="95" spans="1:17" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
@@ -5331,7 +5396,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:17" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>159</v>
       </c>
@@ -5386,18 +5451,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
@@ -5405,20 +5470,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="62.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="7.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="62.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="95" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>247</v>
       </c>
@@ -5490,18 +5555,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
@@ -5509,14 +5574,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9.140625" style="6" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="9.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="9.5703125" collapsed="true"/>
+    <col min="5" max="16384" style="6" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>247</v>
       </c>
@@ -5541,7 +5606,7 @@
         <v>94</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="22" spans="5:5" x14ac:dyDescent="0.25">
@@ -5552,18 +5617,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:AD4"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1"/>
@@ -5571,38 +5636,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="38.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="95" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="95" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -5840,18 +5905,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="P1" sqref="P1"/>
@@ -5859,29 +5924,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="38.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>247</v>
       </c>
@@ -5943,7 +6008,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>159</v>
       </c>
@@ -6007,19 +6072,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" r:id="rId2" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -6027,25 +6092,25 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="13.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="11.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="7.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="9.140625" style="6" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="9.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="17.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="11.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="9.5703125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="6" width="13.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="6" width="9.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="6" width="14.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="6" width="11.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="6" width="5.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="6" width="9.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="6" width="7.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="6" width="17.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="6" width="10.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="6" width="15.140625" collapsed="true"/>
+    <col min="16" max="16384" style="6" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>5</v>
       </c>
@@ -6092,7 +6157,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row ht="45" r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>159</v>
       </c>
@@ -6147,19 +6212,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
@@ -6167,13 +6232,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="6" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="9.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="17.7109375" collapsed="true"/>
+    <col min="4" max="16384" style="6" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>5</v>
       </c>
@@ -6203,18 +6268,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AL7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -6222,41 +6287,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="32.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.140625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="67" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="13.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="19" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="21.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="23.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="13.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="67.0" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="11.140625" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="1" spans="1:37" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
@@ -6369,7 +6434,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="30.75" r="2" spans="1:37" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>159</v>
       </c>
@@ -6617,14 +6682,204 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="0.59999389629810485"/>
+  </sheetPr>
+  <dimension ref="A1:W4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" r="1" s="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="M1" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>307</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="P1" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q1" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="R1" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="S1" s="33" t="s">
+        <v>314</v>
+      </c>
+      <c r="T1" s="33" t="s">
+        <v>274</v>
+      </c>
+      <c r="U1" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="V1" s="33" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="M2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="R2" s="6">
+        <v>363536755</v>
+      </c>
+      <c r="S2" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="V2" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row customFormat="1" r="3" s="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row customFormat="1" r="4" s="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="H4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="B2"/>
+  </hyperlinks>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" r:id="rId2" verticalDpi="4294967295"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
@@ -6634,191 +6889,187 @@
       <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="37" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="37" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="37" width="23.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="37" width="16.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="37" width="8.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="37" width="15.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="37" width="17.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="37" width="17.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="37" width="13.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="37" width="18.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="37" width="28.0" collapsed="true"/>
+    <col min="12" max="12" style="37" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="37" width="17.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="37" width="31.85546875" collapsed="true"/>
+    <col min="15" max="19" style="37" width="9.140625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="37" width="19.28515625" collapsed="true"/>
+    <col min="21" max="16384" style="37" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="F1" s="33" t="s">
+      <c r="C1" s="32" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="E1" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="F1" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="H1" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="I1" s="33" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1" s="32" t="s">
+        <v>277</v>
+      </c>
+      <c r="L1" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="M1" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="H1" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="J1" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="K1" s="33" t="s">
-        <v>145</v>
-      </c>
-      <c r="L1" s="32" t="s">
+      <c r="N1" s="32" t="s">
         <v>249</v>
       </c>
-      <c r="M1" s="32" t="s">
+      <c r="O1" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="N1" s="33" t="s">
+      <c r="P1" s="33" t="s">
         <v>307</v>
       </c>
-      <c r="O1" s="33" t="s">
+      <c r="Q1" s="33" t="s">
         <v>308</v>
       </c>
-      <c r="P1" s="33" t="s">
+      <c r="R1" s="33" t="s">
         <v>313</v>
       </c>
-      <c r="Q1" s="33" t="s">
+      <c r="S1" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="R1" s="33" t="s">
+      <c r="T1" s="33" t="s">
         <v>310</v>
       </c>
-      <c r="S1" s="33" t="s">
+      <c r="U1" s="33" t="s">
         <v>314</v>
       </c>
-      <c r="T1" s="33" t="s">
-        <v>274</v>
-      </c>
-      <c r="U1" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="V1" s="33" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row customFormat="1" r="2" s="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="C2" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="I2" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>498</v>
+      </c>
+      <c r="K2" s="16">
+        <v>123</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M2" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>492</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="L2" s="16" t="s">
+      <c r="N2" s="16" t="s">
         <v>270</v>
       </c>
-      <c r="M2" s="7" t="s">
+      <c r="O2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="P2" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q2" s="6" t="s">
+      <c r="R2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="S2" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="R2" s="6">
+      <c r="T2" s="6">
         <v>363536755</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="T2" s="6" t="s">
-        <v>360</v>
-      </c>
       <c r="U2" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="V2" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H3" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row customFormat="1" r="3" s="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="H4" s="6" t="s">
+      <c r="G3" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row customFormat="1" r="4" s="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="6" t="s">
-        <v>108</v>
+      <c r="G4" s="7" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
@@ -6826,185 +7077,156 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" style="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.85546875" style="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.85546875" style="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.42578125" style="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.28515625" style="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17" style="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.85546875" style="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" style="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.7109375" style="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28" style="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" style="37" collapsed="1"/>
-    <col min="13" max="13" width="17.42578125" style="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="31.85546875" style="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="19" width="9.140625" style="37" collapsed="1"/>
-    <col min="20" max="20" width="19.28515625" style="37" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="16384" width="9.140625" style="37" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="9.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="30.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="22.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="19.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="6" width="10.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="6" width="15.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="6" width="17.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="6" width="15.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="6" width="24.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="6" width="28.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="6" width="35.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="6" width="22.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="6" width="18.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="6" width="13.7109375" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="6" width="16.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="6" width="30.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="6" width="17.85546875" collapsed="true"/>
+    <col min="19" max="16384" style="6" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="E1" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="F1" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="G1" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="H1" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>129</v>
-      </c>
-      <c r="J1" s="32" t="s">
-        <v>127</v>
-      </c>
-      <c r="K1" s="32" t="s">
-        <v>277</v>
-      </c>
-      <c r="L1" s="32" t="s">
-        <v>144</v>
-      </c>
-      <c r="M1" s="32" t="s">
+      <c r="J1" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="K1" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="L1" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>240</v>
+      </c>
+      <c r="N1" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>241</v>
+      </c>
+      <c r="P1" s="32" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q1" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="N1" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="O1" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="P1" s="33" t="s">
-        <v>307</v>
-      </c>
-      <c r="Q1" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="R1" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="S1" s="33" t="s">
-        <v>115</v>
-      </c>
-      <c r="T1" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="U1" s="33" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H2" s="7" t="s">
+      <c r="J2" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="I2" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>491</v>
-      </c>
-      <c r="K2" s="16">
-        <v>123</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="M2" s="7" t="s">
+      <c r="N2" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="N2" s="16" t="s">
-        <v>270</v>
-      </c>
-      <c r="O2" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="T2" s="6">
-        <v>363536755</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="F4" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>246</v>
-      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E23" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
@@ -7012,135 +7234,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="35.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="13.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="30.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="16384" width="9.140625" style="6" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="9.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="11.7109375" collapsed="true"/>
+    <col min="3" max="16384" style="6" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="E1" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>127</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="I1" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="J1" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="K1" s="33" t="s">
-        <v>216</v>
-      </c>
-      <c r="L1" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="M1" s="33" t="s">
-        <v>240</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="O1" s="33" t="s">
-        <v>241</v>
-      </c>
-      <c r="P1" s="32" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q1" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="R1" s="33" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>476</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="N2" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>97</v>
-      </c>
     </row>
     <row r="22" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E22" s="15"/>
@@ -7150,18 +7263,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
@@ -7169,61 +7282,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="16384" width="9.140625" style="6" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="9.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="10.140625" collapsed="true"/>
+    <col min="4" max="16384" style="6" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E23" s="15"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="5" tint="0.59999389629810485"/>
-  </sheetPr>
-  <dimension ref="A1:E23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="6" collapsed="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>5</v>
       </c>
@@ -7253,18 +7318,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
@@ -7272,14 +7337,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9.28515625" style="6" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="9.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="18.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="14.85546875" collapsed="true"/>
+    <col min="5" max="16384" style="6" width="9.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>5</v>
       </c>
@@ -7315,18 +7380,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
@@ -7334,26 +7399,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="38.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="38.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="38.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="38.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>5</v>
       </c>
@@ -7409,7 +7474,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>159</v>
       </c>
@@ -7507,19 +7572,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" r:id="rId2" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I3" sqref="I3"/>
@@ -7527,20 +7592,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="12.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="11.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="27.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="9.140625" style="6" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="9.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="14.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="15.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="6" width="12.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="6" width="11.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="6" width="21.0" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="6" width="14.5703125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="6" width="27.28515625" collapsed="true"/>
+    <col min="11" max="16384" style="6" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>5</v>
       </c>
@@ -7598,7 +7663,7 @@
         <v>172</v>
       </c>
       <c r="I2" s="21" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="J2" s="21" t="s">
         <v>271</v>
@@ -7787,18 +7852,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AL7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AI11" sqref="AI11"/>
@@ -7806,47 +7871,47 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.7109375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="13.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.7109375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="11.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.7109375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.7109375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="13.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.140625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15.7109375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.5703125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="52.140625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="14.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="10" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="11.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="23.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="19" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="11.42578125" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="12.7109375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="12.28515625" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="13.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="17.85546875" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="20" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="21.7109375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="15.7109375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="12.7109375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="22.7109375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="12.7109375" style="7" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="38" max="16384" width="9.140625" style="7" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="7" width="9.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="7" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="7" width="30.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="7" width="16.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="7" width="13.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="7" width="9.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="7" width="16.0" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="7" width="10.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="7" width="17.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="7" width="11.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="7" width="9.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="7" width="15.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="7" width="14.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="7" width="13.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="7" width="11.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="7" width="15.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="7" width="20.0" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="7" width="15.5703125" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="7" width="11.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="7" width="52.140625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="7" width="14.28515625" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="7" width="10.0" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="7" width="21.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="7" width="11.85546875" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="7" width="23.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="7" width="19.0" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="7" width="11.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="7" width="12.7109375" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="7" width="12.28515625" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="7" width="13.85546875" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="7" width="17.85546875" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="7" width="20.0" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="7" width="21.7109375" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="7" width="15.7109375" collapsed="true"/>
+    <col min="35" max="35" bestFit="true" customWidth="true" style="7" width="12.7109375" collapsed="true"/>
+    <col min="36" max="36" bestFit="true" customWidth="true" style="7" width="22.7109375" collapsed="true"/>
+    <col min="37" max="37" bestFit="true" customWidth="true" style="7" width="12.7109375" collapsed="true"/>
+    <col min="38" max="16384" style="7" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" s="32" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="32" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>5</v>
       </c>
@@ -7959,7 +8024,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="2" spans="1:37" ht="30" x14ac:dyDescent="0.25">
+    <row ht="30" r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>159</v>
       </c>
@@ -7967,7 +8032,7 @@
         <v>160</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="D2" s="16" t="s">
         <v>21</v>
@@ -8165,19 +8230,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" r:id="rId2" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:V7"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
@@ -8185,17 +8250,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>5</v>
       </c>
@@ -8263,7 +8328,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>159</v>
       </c>
@@ -8331,74 +8396,74 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G3" s="58" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G4" s="58" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="5" s="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G5" s="58" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="6" s="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G6" s="58" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="7" s="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="G7" s="57"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" r:id="rId2" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="28" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
@@ -8463,7 +8528,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="2" s="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>159</v>
       </c>
@@ -8492,7 +8557,7 @@
         <v>361</v>
       </c>
       <c r="J2" s="76" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
       <c r="K2" s="76">
         <v>123</v>
@@ -8528,7 +8593,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="3" s="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -8549,7 +8614,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="4" s="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -8572,19 +8637,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" r:id="rId2" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
@@ -8592,27 +8657,27 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="7.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="27.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="28.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="11.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="35.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="21.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="16.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="30.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="16384" width="9.140625" style="6" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="9.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="10.140625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="14.85546875" collapsed="true"/>
+    <col min="5" max="6" bestFit="true" customWidth="true" style="6" width="7.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="6" width="14.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="6" width="28.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="6" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="6" width="22.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="6" width="27.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="6" width="14.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="6" width="28.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="6" width="11.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="6" width="35.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="6" width="21.140625" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="6" width="16.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="6" width="30.28515625" collapsed="true"/>
+    <col min="19" max="16384" style="6" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>5</v>
       </c>
@@ -8682,10 +8747,10 @@
         <v>151</v>
       </c>
       <c r="E2" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>487</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>488</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>260</v>
@@ -8746,19 +8811,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" r:id="rId2" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
@@ -8766,28 +8831,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.85546875" style="6" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="38.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="35.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="27.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="16.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="17.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="21.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="22.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="35.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="18.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="16384" width="10.28515625" style="6" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="9.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="6" width="17.85546875" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="29.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="11.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="6" width="10.42578125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="6" width="38.140625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="6" width="17.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="6" width="35.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="6" width="27.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="6" width="10.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="6" width="16.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="6" width="17.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="6" width="21.7109375" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="6" width="22.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="6" width="16.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="6" width="35.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="6" width="18.85546875" collapsed="true"/>
+    <col min="19" max="16384" style="6" width="10.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>5</v>
       </c>
@@ -8925,19 +8990,19 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967295" orientation="portrait" r:id="rId2" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:R23"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
@@ -8945,28 +9010,28 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="9.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="19.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="30.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="15.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="16384" width="9.140625" style="6" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="9.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="17.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="14.7109375" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="22.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="6" width="9.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="6" width="9.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="6" width="21.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="6" width="17.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="6" width="24.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="6" width="10.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="6" width="24.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="6" width="19.28515625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="6" width="10.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="6" width="18.5703125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="6" width="16.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="6" width="30.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="6" width="15.85546875" collapsed="true"/>
+    <col min="19" max="16384" style="6" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>5</v>
       </c>
@@ -9086,18 +9151,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
@@ -9105,22 +9170,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="24.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="24.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="95" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="15.75" r="1" s="95" spans="1:13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
@@ -9161,7 +9226,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>159</v>
       </c>
@@ -9169,7 +9234,7 @@
         <v>160</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>224</v>
@@ -9224,18 +9289,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:AH23"/>
+  <dimension ref="A1:AI23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="AH2" sqref="AH2"/>
@@ -9243,44 +9308,44 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="31.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="40" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="25.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="22" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="22.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="12.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="12.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="19.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="16.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="13.5703125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="24.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="43.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="33.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="18.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="18.140625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="15.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="15.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="11.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="7.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="19.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="14.85546875" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="23.42578125" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="35" max="16384" width="9.140625" style="6" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="10.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="32.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="31.42578125" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="6" width="40.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="6" width="15.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="6" width="20.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="6" width="16.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="6" width="25.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="6" width="15.7109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="6" width="22.0" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="6" width="11.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="6" width="9.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="6" width="23.140625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="6" width="19.7109375" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="6" width="22.140625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="6" width="12.85546875" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="6" width="12.28515625" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="6" width="19.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="6" width="16.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="6" width="13.5703125" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="6" width="24.42578125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="6" width="43.28515625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="6" width="33.85546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="6" width="18.85546875" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="6" width="18.140625" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="6" width="15.42578125" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="6" width="15.85546875" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="6" width="11.42578125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="6" width="7.28515625" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="6" width="19.28515625" collapsed="true"/>
+    <col min="33" max="33" bestFit="true" customWidth="true" style="6" width="14.85546875" collapsed="true"/>
+    <col min="34" max="34" bestFit="true" customWidth="true" style="6" width="23.42578125" collapsed="true"/>
+    <col min="35" max="16384" style="6" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="32" t="s">
         <v>5</v>
       </c>
@@ -9501,18 +9566,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
@@ -9520,16 +9585,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.7109375" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="18.28515625" style="6" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="16384" width="9.140625" style="6" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="6" width="9.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="6" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="6" width="15.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="6" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="6" width="15.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="6" width="18.28515625" collapsed="true"/>
+    <col min="7" max="16384" style="6" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="33" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" ht="15.75" r="1" s="33" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
@@ -9549,7 +9614,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>159</v>
       </c>
@@ -9577,18 +9642,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:AF23"/>
+  <dimension ref="A1:AG23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -9596,42 +9661,42 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.42578125" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="22.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.85546875" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="22.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.85546875" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="10" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="24.85546875" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.85546875" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="27.42578125" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="26.42578125" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="17.85546875" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="19.85546875" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="5.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="9.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="27.42578125" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="15.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="21.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="20" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="24.140625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="28.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="17.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="21.5703125" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="21" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="11.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="18.5703125" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="20.7109375" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="18.28515625" style="90" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="16384" width="9.140625" style="90" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="90" width="9.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="90" width="11.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="90" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="90" width="17.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="90" width="22.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" style="90" width="30.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" style="90" width="15.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="90" width="22.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="90" width="14.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="90" width="12.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="90" width="10.0" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="90" width="24.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="90" width="11.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="90" width="27.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="90" width="26.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="90" width="17.85546875" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" style="90" width="19.85546875" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" style="90" width="5.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" style="90" width="9.7109375" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" style="90" width="27.42578125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" style="90" width="15.7109375" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" style="90" width="21.7109375" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" style="90" width="20.0" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" style="90" width="24.140625" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" style="90" width="28.28515625" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" style="90" width="17.28515625" collapsed="true"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" style="90" width="21.5703125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" style="90" width="21.0" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" style="90" width="11.7109375" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" style="90" width="18.5703125" collapsed="true"/>
+    <col min="31" max="31" bestFit="true" customWidth="true" style="90" width="20.7109375" collapsed="true"/>
+    <col min="32" max="32" bestFit="true" customWidth="true" style="90" width="18.28515625" collapsed="true"/>
+    <col min="33" max="16384" style="90" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="89" customFormat="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" r="1" s="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>247</v>
       </c>
@@ -10557,18 +10622,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -10576,26 +10641,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -10692,7 +10757,7 @@
         <v>106</v>
       </c>
       <c r="J2" s="76" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K2" s="58" t="s">
         <v>146</v>
@@ -10768,18 +10833,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:AD4"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -10787,35 +10852,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="23.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="26.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="26.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="11" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="16.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="38.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="10.140625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="16.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
@@ -10969,7 +11034,7 @@
         <v>104</v>
       </c>
       <c r="T2" s="79" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="U2" s="54" t="s">
         <v>218</v>
@@ -11056,18 +11121,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
@@ -11075,24 +11140,24 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="38.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="38.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -11174,7 +11239,7 @@
         <v>219</v>
       </c>
       <c r="G2" s="80" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H2" s="81" t="s">
         <v>125</v>
@@ -11215,18 +11280,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
@@ -11234,17 +11299,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="1" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
@@ -11270,7 +11335,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>159</v>
       </c>
@@ -11278,7 +11343,7 @@
         <v>160</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D2" s="58" t="s">
         <v>146</v>
@@ -11301,7 +11366,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="15" r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="G4" s="58" t="s">
         <v>473</v>
       </c>
@@ -11318,18 +11383,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:R10"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:B2"/>
@@ -11337,26 +11402,26 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="31.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="25.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="38.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="38.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="11.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="19.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="14.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="10.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="11.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="38.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="38.5703125" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="14.85546875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="1" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
         <v>5</v>
       </c>
@@ -11412,7 +11477,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row ht="15.75" r="2" spans="1:18" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="44" t="s">
         <v>159</v>
       </c>
@@ -11420,7 +11485,7 @@
         <v>160</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D2" s="58" t="s">
         <v>130</v>
@@ -11510,8 +11575,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink r:id="rId1" ref="B2"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>